--- a/resultats_fr.xlsx
+++ b/resultats_fr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cloudlasalle-my.sharepoint.com/personal/hamilton_araujo_unilasalle_fr/Documents/Bureau/maths_partage/app_maths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8649811A-4967-4EC3-A7B0-C0480B9C06C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{8649811A-4967-4EC3-A7B0-C0480B9C06C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55B6DB42-DA64-AA4B-BF7F-708E3306FFFF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{324012A4-C409-47AB-B890-3A2793F8F5C9}"/>
+    <workbookView xWindow="1240" yWindow="500" windowWidth="27560" windowHeight="17500" activeTab="5" xr2:uid="{324012A4-C409-47AB-B890-3A2793F8F5C9}"/>
   </bookViews>
   <sheets>
     <sheet name="t1_FR_0411" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="t3_FR_2511" sheetId="4" r:id="rId3"/>
     <sheet name="t4_FR_0212" sheetId="5" r:id="rId4"/>
     <sheet name="t5_FR_0912" sheetId="7" r:id="rId5"/>
+    <sheet name="t6_FR_1612" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">t1_FR_0411!$A$1:$L$1</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="808">
   <si>
     <t>Nom de famille</t>
   </si>
@@ -2366,6 +2367,108 @@
   </si>
   <si>
     <t>5 min 59 s</t>
+  </si>
+  <si>
+    <t>HARDY</t>
+  </si>
+  <si>
+    <t>louis.hardy@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>4 min 48 s</t>
+  </si>
+  <si>
+    <t>6 min 21 s</t>
+  </si>
+  <si>
+    <t>CATHEAU</t>
+  </si>
+  <si>
+    <t>Agathe</t>
+  </si>
+  <si>
+    <t>agathe.catheau@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>5 min 33 s</t>
+  </si>
+  <si>
+    <t>8 min 44 s</t>
+  </si>
+  <si>
+    <t>3 min 24 s</t>
+  </si>
+  <si>
+    <t>BOURDON-MERLIN</t>
+  </si>
+  <si>
+    <t>Emmie</t>
+  </si>
+  <si>
+    <t>emmie.bourdon-merlin@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>11 min 1 s</t>
+  </si>
+  <si>
+    <t>3 min 9 s</t>
+  </si>
+  <si>
+    <t>3 min 23 s</t>
+  </si>
+  <si>
+    <t>11 min 21 s</t>
+  </si>
+  <si>
+    <t>GROBELNY</t>
+  </si>
+  <si>
+    <t>pierre.grobelny@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>17 min 48 s</t>
+  </si>
+  <si>
+    <t>4 min 33 s</t>
+  </si>
+  <si>
+    <t>4 min 7 s</t>
+  </si>
+  <si>
+    <t>6 min 8 s</t>
+  </si>
+  <si>
+    <t>5 min 30 s</t>
+  </si>
+  <si>
+    <t>ALLIZART</t>
+  </si>
+  <si>
+    <t>lucie.allizart@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>12 min 25 s</t>
+  </si>
+  <si>
+    <t>6 min 54 s</t>
+  </si>
+  <si>
+    <t>11 min 15 s</t>
+  </si>
+  <si>
+    <t>31 s</t>
+  </si>
+  <si>
+    <t>MENASSA</t>
+  </si>
+  <si>
+    <t>Cybele</t>
+  </si>
+  <si>
+    <t>cybele.menassa@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>4 min 30 s</t>
   </si>
 </sst>
 </file>
@@ -2384,6 +2487,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2407,13 +2511,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2758,14 +2861,14 @@
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2803,7 +2906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2842,7 +2945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2881,7 +2984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2920,7 +3023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -2959,7 +3062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -2998,7 +3101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -3037,7 +3140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -3076,7 +3179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -3115,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -3154,7 +3257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -3193,7 +3296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -3232,7 +3335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -3271,7 +3374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -3310,7 +3413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -3349,7 +3452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -3388,7 +3491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -3427,7 +3530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -3466,7 +3569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>63</v>
       </c>
@@ -3505,7 +3608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -3544,7 +3647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>68</v>
       </c>
@@ -3583,7 +3686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>71</v>
       </c>
@@ -3622,7 +3725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>74</v>
       </c>
@@ -3661,7 +3764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -3700,7 +3803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>80</v>
       </c>
@@ -3739,7 +3842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>83</v>
       </c>
@@ -3778,7 +3881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -3817,7 +3920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>89</v>
       </c>
@@ -3856,7 +3959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>92</v>
       </c>
@@ -3895,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>93</v>
       </c>
@@ -3934,7 +4037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>96</v>
       </c>
@@ -3973,7 +4076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>99</v>
       </c>
@@ -4012,7 +4115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>101</v>
       </c>
@@ -4051,7 +4154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>104</v>
       </c>
@@ -4090,7 +4193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>107</v>
       </c>
@@ -4129,7 +4232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>110</v>
       </c>
@@ -4168,7 +4271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>113</v>
       </c>
@@ -4207,7 +4310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>116</v>
       </c>
@@ -4246,7 +4349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>119</v>
       </c>
@@ -4285,7 +4388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>122</v>
       </c>
@@ -4324,7 +4427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>125</v>
       </c>
@@ -4363,7 +4466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>128</v>
       </c>
@@ -4402,7 +4505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>131</v>
       </c>
@@ -4441,7 +4544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>134</v>
       </c>
@@ -4480,7 +4583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>137</v>
       </c>
@@ -4519,7 +4622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>140</v>
       </c>
@@ -4558,7 +4661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>143</v>
       </c>
@@ -4597,7 +4700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>146</v>
       </c>
@@ -4658,13 +4761,13 @@
       <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="55" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4702,7 +4805,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>150</v>
       </c>
@@ -4741,7 +4844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>153</v>
       </c>
@@ -4780,7 +4883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>155</v>
       </c>
@@ -4819,7 +4922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>158</v>
       </c>
@@ -4858,7 +4961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>160</v>
       </c>
@@ -4897,7 +5000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>163</v>
       </c>
@@ -4936,7 +5039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>166</v>
       </c>
@@ -4975,7 +5078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>169</v>
       </c>
@@ -5014,7 +5117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>172</v>
       </c>
@@ -5053,7 +5156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>174</v>
       </c>
@@ -5092,7 +5195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>177</v>
       </c>
@@ -5131,7 +5234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>180</v>
       </c>
@@ -5170,7 +5273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>183</v>
       </c>
@@ -5209,7 +5312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -5248,7 +5351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>187</v>
       </c>
@@ -5287,7 +5390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>190</v>
       </c>
@@ -5326,7 +5429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>192</v>
       </c>
@@ -5365,7 +5468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>195</v>
       </c>
@@ -5404,7 +5507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>198</v>
       </c>
@@ -5443,7 +5546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>200</v>
       </c>
@@ -5482,7 +5585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>203</v>
       </c>
@@ -5521,7 +5624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>205</v>
       </c>
@@ -5560,7 +5663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>208</v>
       </c>
@@ -5599,7 +5702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>211</v>
       </c>
@@ -5638,7 +5741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>214</v>
       </c>
@@ -5677,7 +5780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>217</v>
       </c>
@@ -5716,7 +5819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
@@ -5755,7 +5858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>221</v>
       </c>
@@ -5794,7 +5897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>45</v>
       </c>
@@ -5833,7 +5936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>226</v>
       </c>
@@ -5872,7 +5975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>228</v>
       </c>
@@ -5911,7 +6014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>230</v>
       </c>
@@ -5950,7 +6053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>233</v>
       </c>
@@ -5989,7 +6092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>236</v>
       </c>
@@ -6028,7 +6131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>238</v>
       </c>
@@ -6067,7 +6170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>241</v>
       </c>
@@ -6106,7 +6209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>244</v>
       </c>
@@ -6145,7 +6248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>63</v>
       </c>
@@ -6184,7 +6287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>247</v>
       </c>
@@ -6223,7 +6326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>249</v>
       </c>
@@ -6262,7 +6365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>252</v>
       </c>
@@ -6301,7 +6404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>255</v>
       </c>
@@ -6340,7 +6443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>258</v>
       </c>
@@ -6379,7 +6482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>260</v>
       </c>
@@ -6418,7 +6521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>262</v>
       </c>
@@ -6457,7 +6560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>265</v>
       </c>
@@ -6496,7 +6599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>268</v>
       </c>
@@ -6535,7 +6638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>271</v>
       </c>
@@ -6574,7 +6677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>273</v>
       </c>
@@ -6613,7 +6716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>275</v>
       </c>
@@ -6652,7 +6755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>278</v>
       </c>
@@ -6691,7 +6794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>280</v>
       </c>
@@ -6730,7 +6833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>80</v>
       </c>
@@ -6769,7 +6872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>283</v>
       </c>
@@ -6808,7 +6911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>285</v>
       </c>
@@ -6847,7 +6950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>288</v>
       </c>
@@ -6886,7 +6989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>83</v>
       </c>
@@ -6925,7 +7028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>291</v>
       </c>
@@ -6964,7 +7067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>294</v>
       </c>
@@ -7003,7 +7106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>297</v>
       </c>
@@ -7042,7 +7145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>299</v>
       </c>
@@ -7081,7 +7184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>302</v>
       </c>
@@ -7120,7 +7223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>92</v>
       </c>
@@ -7159,7 +7262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>306</v>
       </c>
@@ -7198,7 +7301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>308</v>
       </c>
@@ -7237,7 +7340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>310</v>
       </c>
@@ -7276,7 +7379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>313</v>
       </c>
@@ -7315,7 +7418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>315</v>
       </c>
@@ -7354,7 +7457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>318</v>
       </c>
@@ -7393,7 +7496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>321</v>
       </c>
@@ -7432,7 +7535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>324</v>
       </c>
@@ -7471,7 +7574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>327</v>
       </c>
@@ -7510,7 +7613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>330</v>
       </c>
@@ -7549,7 +7652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>333</v>
       </c>
@@ -7588,7 +7691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>333</v>
       </c>
@@ -7627,7 +7730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>338</v>
       </c>
@@ -7666,7 +7769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>341</v>
       </c>
@@ -7705,7 +7808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>344</v>
       </c>
@@ -7744,7 +7847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>344</v>
       </c>
@@ -7783,7 +7886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>348</v>
       </c>
@@ -7822,7 +7925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>350</v>
       </c>
@@ -7861,7 +7964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>352</v>
       </c>
@@ -7900,7 +8003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>355</v>
       </c>
@@ -7939,7 +8042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>358</v>
       </c>
@@ -7978,7 +8081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>361</v>
       </c>
@@ -8017,7 +8120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>364</v>
       </c>
@@ -8056,7 +8159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>367</v>
       </c>
@@ -8095,7 +8198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>369</v>
       </c>
@@ -8134,7 +8237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>372</v>
       </c>
@@ -8173,7 +8276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>375</v>
       </c>
@@ -8212,7 +8315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>378</v>
       </c>
@@ -8251,7 +8354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>380</v>
       </c>
@@ -8290,7 +8393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>383</v>
       </c>
@@ -8329,7 +8432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>386</v>
       </c>
@@ -8368,7 +8471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>388</v>
       </c>
@@ -8407,7 +8510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>391</v>
       </c>
@@ -8446,7 +8549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>393</v>
       </c>
@@ -8485,7 +8588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>125</v>
       </c>
@@ -8524,7 +8627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>397</v>
       </c>
@@ -8563,7 +8666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>400</v>
       </c>
@@ -8602,7 +8705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>403</v>
       </c>
@@ -8641,7 +8744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>406</v>
       </c>
@@ -8680,7 +8783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>409</v>
       </c>
@@ -8719,7 +8822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>412</v>
       </c>
@@ -8758,7 +8861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>414</v>
       </c>
@@ -8797,7 +8900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>417</v>
       </c>
@@ -8836,7 +8939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>420</v>
       </c>
@@ -8875,7 +8978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>423</v>
       </c>
@@ -8914,7 +9017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>425</v>
       </c>
@@ -8953,7 +9056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>428</v>
       </c>
@@ -8992,7 +9095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>430</v>
       </c>
@@ -9031,7 +9134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>433</v>
       </c>
@@ -9070,7 +9173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>436</v>
       </c>
@@ -9109,7 +9212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>438</v>
       </c>
@@ -9148,7 +9251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>131</v>
       </c>
@@ -9187,7 +9290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>441</v>
       </c>
@@ -9226,7 +9329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>444</v>
       </c>
@@ -9265,7 +9368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>447</v>
       </c>
@@ -9304,7 +9407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>449</v>
       </c>
@@ -9343,7 +9446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>452</v>
       </c>
@@ -9382,7 +9485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>454</v>
       </c>
@@ -9421,7 +9524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>143</v>
       </c>
@@ -9460,7 +9563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>146</v>
       </c>
@@ -9499,7 +9602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>458</v>
       </c>
@@ -9538,7 +9641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>460</v>
       </c>
@@ -9598,15 +9701,15 @@
       <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9644,7 +9747,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>436</v>
       </c>
@@ -9683,7 +9786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>341</v>
       </c>
@@ -9722,7 +9825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>463</v>
       </c>
@@ -9761,7 +9864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>466</v>
       </c>
@@ -9800,7 +9903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>333</v>
       </c>
@@ -9839,7 +9942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>383</v>
       </c>
@@ -9878,7 +9981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>468</v>
       </c>
@@ -9917,7 +10020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>321</v>
       </c>
@@ -9956,7 +10059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>471</v>
       </c>
@@ -9995,7 +10098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>473</v>
       </c>
@@ -10034,7 +10137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>414</v>
       </c>
@@ -10073,7 +10176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>475</v>
       </c>
@@ -10112,7 +10215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>131</v>
       </c>
@@ -10151,7 +10254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>318</v>
       </c>
@@ -10190,7 +10293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>478</v>
       </c>
@@ -10229,7 +10332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>481</v>
       </c>
@@ -10268,7 +10371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>361</v>
       </c>
@@ -10307,7 +10410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>484</v>
       </c>
@@ -10346,7 +10449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>486</v>
       </c>
@@ -10385,7 +10488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>488</v>
       </c>
@@ -10424,7 +10527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>491</v>
       </c>
@@ -10463,7 +10566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>494</v>
       </c>
@@ -10502,7 +10605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>497</v>
       </c>
@@ -10541,7 +10644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>500</v>
       </c>
@@ -10580,7 +10683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>275</v>
       </c>
@@ -10619,7 +10722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>291</v>
       </c>
@@ -10658,7 +10761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>503</v>
       </c>
@@ -10697,7 +10800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>506</v>
       </c>
@@ -10736,7 +10839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>509</v>
       </c>
@@ -10775,7 +10878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>511</v>
       </c>
@@ -10814,7 +10917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>441</v>
       </c>
@@ -10853,7 +10956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>244</v>
       </c>
@@ -10892,7 +10995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>280</v>
       </c>
@@ -10931,7 +11034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>514</v>
       </c>
@@ -10970,7 +11073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>517</v>
       </c>
@@ -11009,7 +11112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>519</v>
       </c>
@@ -11048,7 +11151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>160</v>
       </c>
@@ -11087,7 +11190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>388</v>
       </c>
@@ -11126,7 +11229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>522</v>
       </c>
@@ -11165,7 +11268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>525</v>
       </c>
@@ -11204,7 +11307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>527</v>
       </c>
@@ -11243,7 +11346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>530</v>
       </c>
@@ -11282,7 +11385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>532</v>
       </c>
@@ -11321,7 +11424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>535</v>
       </c>
@@ -11360,7 +11463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>538</v>
       </c>
@@ -11399,7 +11502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>541</v>
       </c>
@@ -11438,7 +11541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>544</v>
       </c>
@@ -11477,7 +11580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>546</v>
       </c>
@@ -11516,7 +11619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>549</v>
       </c>
@@ -11555,7 +11658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>278</v>
       </c>
@@ -11594,7 +11697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>297</v>
       </c>
@@ -11633,7 +11736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>552</v>
       </c>
@@ -11672,7 +11775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>344</v>
       </c>
@@ -11711,7 +11814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>555</v>
       </c>
@@ -11750,7 +11853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>558</v>
       </c>
@@ -11789,7 +11892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>560</v>
       </c>
@@ -11828,7 +11931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>449</v>
       </c>
@@ -11867,7 +11970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>563</v>
       </c>
@@ -11906,7 +12009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>283</v>
       </c>
@@ -11945,7 +12048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>565</v>
       </c>
@@ -11984,7 +12087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>568</v>
       </c>
@@ -12023,7 +12126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>570</v>
       </c>
@@ -12062,7 +12165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>573</v>
       </c>
@@ -12101,7 +12204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>576</v>
       </c>
@@ -12140,7 +12243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>578</v>
       </c>
@@ -12179,7 +12282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>581</v>
       </c>
@@ -12218,7 +12321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>330</v>
       </c>
@@ -12257,7 +12360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>458</v>
       </c>
@@ -12296,7 +12399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>378</v>
       </c>
@@ -12335,7 +12438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>584</v>
       </c>
@@ -12374,7 +12477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>586</v>
       </c>
@@ -12413,7 +12516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>589</v>
       </c>
@@ -12452,7 +12555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>146</v>
       </c>
@@ -12491,7 +12594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>364</v>
       </c>
@@ -12530,7 +12633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>591</v>
       </c>
@@ -12569,7 +12672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>593</v>
       </c>
@@ -12608,7 +12711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>595</v>
       </c>
@@ -12647,7 +12750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>107</v>
       </c>
@@ -12686,7 +12789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>260</v>
       </c>
@@ -12725,7 +12828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>217</v>
       </c>
@@ -12764,7 +12867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>192</v>
       </c>
@@ -12803,7 +12906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>599</v>
       </c>
@@ -12842,7 +12945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>602</v>
       </c>
@@ -12881,7 +12984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>605</v>
       </c>
@@ -12920,7 +13023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>608</v>
       </c>
@@ -12959,7 +13062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>299</v>
       </c>
@@ -12998,7 +13101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>33</v>
       </c>
@@ -13037,7 +13140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>150</v>
       </c>
@@ -13076,7 +13179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>612</v>
       </c>
@@ -13115,7 +13218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>198</v>
       </c>
@@ -13154,7 +13257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>163</v>
       </c>
@@ -13193,7 +13296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>615</v>
       </c>
@@ -13232,7 +13335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>273</v>
       </c>
@@ -13271,7 +13374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>617</v>
       </c>
@@ -13310,7 +13413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>619</v>
       </c>
@@ -13349,7 +13452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>403</v>
       </c>
@@ -13388,7 +13491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>180</v>
       </c>
@@ -13427,7 +13530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>372</v>
       </c>
@@ -13466,7 +13569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>622</v>
       </c>
@@ -13505,7 +13608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>625</v>
       </c>
@@ -13544,7 +13647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>306</v>
       </c>
@@ -13583,7 +13686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>627</v>
       </c>
@@ -13638,9 +13741,9 @@
       <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13678,7 +13781,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>198</v>
       </c>
@@ -13717,7 +13820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>146</v>
       </c>
@@ -13756,7 +13859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>629</v>
       </c>
@@ -13795,7 +13898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>180</v>
       </c>
@@ -13834,7 +13937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>221</v>
       </c>
@@ -13873,7 +13976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>617</v>
       </c>
@@ -13912,7 +14015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>634</v>
       </c>
@@ -13951,7 +14054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>302</v>
       </c>
@@ -13990,7 +14093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>636</v>
       </c>
@@ -14029,7 +14132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>192</v>
       </c>
@@ -14068,7 +14171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>638</v>
       </c>
@@ -14107,7 +14210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>532</v>
       </c>
@@ -14146,7 +14249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>576</v>
       </c>
@@ -14185,7 +14288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>299</v>
       </c>
@@ -14224,7 +14327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>641</v>
       </c>
@@ -14263,7 +14366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>643</v>
       </c>
@@ -14302,7 +14405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>645</v>
       </c>
@@ -14341,7 +14444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>447</v>
       </c>
@@ -14380,7 +14483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>541</v>
       </c>
@@ -14419,7 +14522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>573</v>
       </c>
@@ -14458,7 +14561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>650</v>
       </c>
@@ -14497,7 +14600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>599</v>
       </c>
@@ -14536,7 +14639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>530</v>
       </c>
@@ -14575,7 +14678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>378</v>
       </c>
@@ -14614,7 +14717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>522</v>
       </c>
@@ -14653,7 +14756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>653</v>
       </c>
@@ -14692,7 +14795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>602</v>
       </c>
@@ -14731,7 +14834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>656</v>
       </c>
@@ -14770,7 +14873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>211</v>
       </c>
@@ -14809,7 +14912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>244</v>
       </c>
@@ -14848,7 +14951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>278</v>
       </c>
@@ -14887,7 +14990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>570</v>
       </c>
@@ -14926,7 +15029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>658</v>
       </c>
@@ -14965,7 +15068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>107</v>
       </c>
@@ -15004,7 +15107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>99</v>
       </c>
@@ -15043,7 +15146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -15082,7 +15185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -15121,7 +15224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>497</v>
       </c>
@@ -15160,7 +15263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>662</v>
       </c>
@@ -15199,7 +15302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>665</v>
       </c>
@@ -15238,7 +15341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>667</v>
       </c>
@@ -15277,7 +15380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>669</v>
       </c>
@@ -15316,7 +15419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>672</v>
       </c>
@@ -15355,7 +15458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>280</v>
       </c>
@@ -15394,7 +15497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>675</v>
       </c>
@@ -15433,7 +15536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>414</v>
       </c>
@@ -15472,7 +15575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>333</v>
       </c>
@@ -15511,7 +15614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>406</v>
       </c>
@@ -15550,7 +15653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>678</v>
       </c>
@@ -15589,7 +15692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>341</v>
       </c>
@@ -15628,7 +15731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>169</v>
       </c>
@@ -15667,7 +15770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>682</v>
       </c>
@@ -15706,7 +15809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>685</v>
       </c>
@@ -15745,7 +15848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>687</v>
       </c>
@@ -15784,7 +15887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>372</v>
       </c>
@@ -15823,7 +15926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>306</v>
       </c>
@@ -15862,7 +15965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>627</v>
       </c>
@@ -15910,1787 +16013,1787 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7AA4CA-AABA-4CDB-A208-486783953FF9}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="C2" s="4" t="str">
+      <c r="C2" s="1" t="str">
         <f>A2&amp;B2</f>
         <v>SENEZCeleste</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="1">
         <v>14</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="J2" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="M2" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="C3" s="1" t="str">
         <f t="shared" ref="C3:C43" si="0">A3&amp;B3</f>
         <v>DEBOUDTAubin</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="1">
         <v>14.5</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="H3" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="M3" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="C4" s="4" t="str">
+      <c r="C4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>DUPRELilou</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="1">
         <v>5</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="H4" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="K4" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C5" s="4" t="str">
+      <c r="C5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ROUGEGREZTom</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="1">
         <v>9</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="G5" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="K5" s="4" t="s">
+      <c r="I5" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="M5" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C6" s="4" t="str">
+      <c r="C6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>LEVENTEnzo</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="1">
         <v>11</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="H6" s="4" t="s">
+      <c r="G6" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="L6" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="C7" s="4" t="str">
+      <c r="C7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>TROLLERemi</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="F7" s="5">
-        <v>3</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="J7" s="4" t="s">
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="K7" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="C8" s="4" t="str">
+      <c r="C8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PLATEAUCorentin</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="1">
         <v>9</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="I8" s="4" t="s">
+      <c r="G8" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="L8" s="4" t="s">
+      <c r="K8" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="M8" s="4" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="M8" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="C9" s="4" t="str">
+      <c r="C9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ROUZADEApolline</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="1">
         <v>14.5</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="J9" s="4" t="s">
+      <c r="I9" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="M9" s="4" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="M9" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C10" s="4" t="str">
+      <c r="C10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>LECERFNathan</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="1">
         <v>17</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="M10" s="4" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="M10" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="C11" s="4" t="str">
+      <c r="C11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>GANGNITOCassandre</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="1">
         <v>9</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="H11" s="4" t="s">
+      <c r="G11" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="K11" s="4" t="s">
+      <c r="I11" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="M11" s="4" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="M11" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="C12" s="4" t="str">
+      <c r="C12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>DYKMANSVictoire</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="1">
         <v>11.5</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="H12" s="4" t="s">
+      <c r="G12" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="K12" s="4" t="s">
+      <c r="J12" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="M12" s="4" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="M12" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="4" t="str">
+      <c r="C13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>LANGLAISAlexis</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="1">
         <v>11</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="H13" s="4" t="s">
+      <c r="G13" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="L13" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="L13" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C14" s="4" t="str">
+      <c r="C14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>CELISSEAntoine</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="1">
         <v>8.5</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="I14" s="4" t="s">
+      <c r="G14" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="L14" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="L14" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C15" s="4" t="str">
+      <c r="C15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>DEMESYEnguerrand</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="1">
         <v>11.5</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="H15" s="4" t="s">
+      <c r="G15" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="J15" s="4" t="s">
+      <c r="I15" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="L15" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="M15" s="4" t="s">
+      <c r="L15" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="4" t="str">
+      <c r="C16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>AMORYLucie</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="1">
         <v>5</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="I16" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="I16" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="C17" s="4" t="str">
+      <c r="C17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>GIBERTGarance</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="1">
         <v>14</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="H17" s="4" t="s">
+      <c r="G17" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="L17" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="M17" s="4" t="s">
+      <c r="L17" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="4" t="str">
+      <c r="C18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>CHIEN-CHOW-CHINEJules</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="1">
         <v>8</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="I18" s="4" t="s">
+      <c r="H18" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="K18" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="K18" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="C19" s="4" t="str">
+      <c r="C19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>HAMOTPriscille</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="1">
         <v>12.5</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="J19" s="4" t="s">
+      <c r="G19" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="L19" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="M19" s="1" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C20" s="4" t="str">
+      <c r="C20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>DE FAUTEREAU-VASSELLuc</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="1">
         <v>17.5</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="I20" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="J20" s="4" t="s">
+      <c r="I20" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="L20" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="M20" s="1" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C21" s="4" t="str">
+      <c r="C21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>GAY-BOISSIER-DESCOMBESAnoa</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="1">
         <v>9</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="H21" s="4" t="s">
+      <c r="G21" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="I21" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="J21" s="4" t="s">
+      <c r="I21" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="K21" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="L21" s="4" t="s">
+      <c r="K21" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="L21" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="M21" s="4" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="M21" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="4" t="str">
+      <c r="C22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>LE HANNIERDea</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="1">
         <v>9.5</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="K22" s="4" t="s">
+      <c r="G22" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="L22" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="M22" s="4" t="s">
+      <c r="M22" s="1" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="4" t="str">
+      <c r="C23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>HEUSSEVictorien</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="1">
         <v>11</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="I23" s="4" t="s">
+      <c r="H23" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J23" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="K23" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="L23" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="L23" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="C24" s="4" t="str">
+      <c r="C24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>DESPRESMaylis</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="1">
         <v>20</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="J24" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="K24" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="L24" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="M24" s="4" t="s">
+      <c r="M24" s="1" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C25" s="4" t="str">
+      <c r="C25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>RAVELOJAONAArthur</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="1">
         <v>5</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="H25" s="4" t="s">
+      <c r="G25" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="J25" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="J25" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="C26" s="4" t="str">
+      <c r="C26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>SCHIEBERHortense</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="1">
         <v>9</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="I26" s="4" t="s">
+      <c r="G26" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="J26" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="K26" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="L26" s="4" t="s">
+      <c r="K26" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="L26" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="M26" s="4" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="M26" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C27" s="4" t="str">
+      <c r="C27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>VANDERMERSCHMaxence</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="1">
         <v>17</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="J27" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="K27" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="L27" s="4" t="s">
+      <c r="L27" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="M27" s="4" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="M27" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C28" s="4" t="str">
+      <c r="C28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>VAN COPPENOLLELaura</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="1">
         <v>7.5</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="J28" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="J28" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="C29" s="4" t="str">
+      <c r="C29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>GONONYoan</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="1">
         <v>20</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="J29" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="K29" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="L29" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="M29" s="4" t="s">
+      <c r="M29" s="1" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="C30" s="4" t="str">
+      <c r="C30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>DUBOISSebastien</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="1">
         <v>5.5</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="H30" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="K30" s="4" t="s">
+      <c r="H30" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="L30" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="L30" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="C31" s="4" t="str">
+      <c r="C31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>VECTENAuguste</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="1">
         <v>12</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="H31" s="4" t="s">
+      <c r="G31" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="I31" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="J31" s="4" t="s">
+      <c r="I31" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="K31" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="L31" s="4" t="s">
+      <c r="L31" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="M31" s="4" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="M31" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="C32" s="4" t="str">
+      <c r="C32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ALLARTAbigaelle</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="1">
         <v>14.5</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="I32" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="J32" s="4" t="s">
+      <c r="I32" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="K32" s="4" t="s">
+      <c r="K32" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="L32" s="4" t="s">
+      <c r="L32" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="M32" s="4" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="M32" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="C33" s="4" t="str">
+      <c r="C33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>RABOURDINJean</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="1">
         <v>5</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="I33" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="I33" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="C34" s="4" t="str">
+      <c r="C34" s="1" t="str">
         <f t="shared" si="0"/>
         <v>VINCENTWandrille</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="1">
         <v>12</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="I34" s="4" t="s">
+      <c r="G34" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="J34" s="4" t="s">
+      <c r="J34" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="K34" s="4" t="s">
+      <c r="K34" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="L34" s="4" t="s">
+      <c r="L34" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="M34" s="4" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="M34" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C35" s="4" t="str">
+      <c r="C35" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MERCADEREmma</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="1">
         <v>8</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="H35" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="I35" s="4" t="s">
+      <c r="H35" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="J35" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="L35" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="M35" s="4" t="s">
+      <c r="J35" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="M35" s="1" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C36" s="4" t="str">
+      <c r="C36" s="1" t="str">
         <f t="shared" si="0"/>
         <v>HERMANTAnaelle</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="1">
         <v>13.5</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G36" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H36" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="I36" s="4" t="s">
+      <c r="I36" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="J36" s="4" t="s">
+      <c r="J36" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="K36" s="4" t="s">
+      <c r="K36" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="L36" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="L36" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C37" s="4" t="str">
+      <c r="C37" s="1" t="str">
         <f t="shared" si="0"/>
         <v>THIREEmeline</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="1">
         <v>8</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="H37" s="4" t="s">
+      <c r="G37" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="I37" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="J37" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="K37" s="4" t="s">
+      <c r="J37" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="K37" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="L37" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="L37" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="C38" s="4" t="str">
+      <c r="C38" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MALHERBELilian</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="1">
         <v>11.5</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G38" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="H38" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="I38" s="4" t="s">
+      <c r="H38" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="J38" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="K38" s="4" t="s">
+      <c r="J38" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="K38" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="L38" s="4" t="s">
+      <c r="L38" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="M38" s="4" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="M38" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="C39" s="4" t="str">
+      <c r="C39" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ROGERTristan</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="1">
         <v>12</v>
       </c>
-      <c r="G39" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="I39" s="4" t="s">
+      <c r="G39" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="J39" s="4" t="s">
+      <c r="J39" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="K39" s="4" t="s">
+      <c r="K39" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="L39" s="4" t="s">
+      <c r="L39" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="M39" s="4" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="M39" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C40" s="4" t="str">
+      <c r="C40" s="1" t="str">
         <f t="shared" si="0"/>
         <v>BOUTILLIERHugo</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="1">
         <v>7.5</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G40" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="H40" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="I40" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="J40" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="M40" s="4" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="J40" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="C41" s="4" t="str">
+      <c r="C41" s="1" t="str">
         <f t="shared" si="0"/>
         <v>GODEBERTBrice</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="1">
         <v>11</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G41" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="H41" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="I41" s="4" t="s">
+      <c r="H41" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="J41" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="K41" s="4" t="s">
+      <c r="J41" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="K41" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="L41" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="M41" s="4" t="s">
+      <c r="L41" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="M41" s="1" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+    <row r="42" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="4" t="str">
+      <c r="C42" s="1" t="str">
         <f t="shared" si="0"/>
         <v>GUILBERTAlban</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="F42" s="5">
-        <v>0</v>
-      </c>
-      <c r="G42" s="4" t="s">
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="H42" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="I42" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="J42" s="4" t="s">
+      <c r="J42" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="K42" s="4" t="s">
+      <c r="K42" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="L42" s="4" t="s">
+      <c r="L42" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="M42" s="4" t="s">
+      <c r="M42" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>770</v>
       </c>
       <c r="B43" t="s">
         <v>771</v>
       </c>
-      <c r="C43" s="4" t="str">
+      <c r="C43" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MONCOURTOISRaphael</v>
       </c>
@@ -17723,6 +17826,944 @@
       </c>
       <c r="M43">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84F63DD-2D1F-FF43-8549-C2AABC95FA05}">
+  <dimension ref="A1:M22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="str">
+        <f>A2&amp;B2</f>
+        <v>HARDYLouis</v>
+      </c>
+      <c r="D2" t="s">
+        <v>775</v>
+      </c>
+      <c r="E2" t="s">
+        <v>776</v>
+      </c>
+      <c r="F2" s="4">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>691</v>
+      </c>
+      <c r="H2" t="s">
+        <v>691</v>
+      </c>
+      <c r="I2" t="s">
+        <v>691</v>
+      </c>
+      <c r="J2" t="s">
+        <v>692</v>
+      </c>
+      <c r="K2" t="s">
+        <v>693</v>
+      </c>
+      <c r="L2" t="s">
+        <v>694</v>
+      </c>
+      <c r="M2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C22" si="0">A3&amp;B3</f>
+        <v>LE HANNIERDea</v>
+      </c>
+      <c r="D3" t="s">
+        <v>598</v>
+      </c>
+      <c r="E3" t="s">
+        <v>777</v>
+      </c>
+      <c r="F3" s="4">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>691</v>
+      </c>
+      <c r="H3" t="s">
+        <v>691</v>
+      </c>
+      <c r="I3" t="s">
+        <v>691</v>
+      </c>
+      <c r="J3" t="s">
+        <v>692</v>
+      </c>
+      <c r="K3" t="s">
+        <v>693</v>
+      </c>
+      <c r="L3" t="s">
+        <v>694</v>
+      </c>
+      <c r="M3" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>CELISSEAntoine</v>
+      </c>
+      <c r="D4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E4" t="s">
+        <v>776</v>
+      </c>
+      <c r="F4" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>692</v>
+      </c>
+      <c r="H4" t="s">
+        <v>691</v>
+      </c>
+      <c r="I4" t="s">
+        <v>691</v>
+      </c>
+      <c r="J4" t="s">
+        <v>693</v>
+      </c>
+      <c r="K4" t="s">
+        <v>693</v>
+      </c>
+      <c r="L4" t="s">
+        <v>694</v>
+      </c>
+      <c r="M4" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>778</v>
+      </c>
+      <c r="B5" t="s">
+        <v>779</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>CATHEAUAgathe</v>
+      </c>
+      <c r="D5" t="s">
+        <v>780</v>
+      </c>
+      <c r="E5" t="s">
+        <v>781</v>
+      </c>
+      <c r="F5" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>691</v>
+      </c>
+      <c r="H5" t="s">
+        <v>692</v>
+      </c>
+      <c r="I5" t="s">
+        <v>691</v>
+      </c>
+      <c r="J5" t="s">
+        <v>693</v>
+      </c>
+      <c r="K5" t="s">
+        <v>693</v>
+      </c>
+      <c r="L5" t="s">
+        <v>694</v>
+      </c>
+      <c r="M5" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>658</v>
+      </c>
+      <c r="B6" t="s">
+        <v>553</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>PLATEAUCorentin</v>
+      </c>
+      <c r="D6" t="s">
+        <v>659</v>
+      </c>
+      <c r="E6" t="s">
+        <v>782</v>
+      </c>
+      <c r="F6" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>692</v>
+      </c>
+      <c r="H6" t="s">
+        <v>691</v>
+      </c>
+      <c r="I6" t="s">
+        <v>691</v>
+      </c>
+      <c r="J6" t="s">
+        <v>693</v>
+      </c>
+      <c r="K6" t="s">
+        <v>693</v>
+      </c>
+      <c r="L6" t="s">
+        <v>694</v>
+      </c>
+      <c r="M6" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>678</v>
+      </c>
+      <c r="B7" t="s">
+        <v>606</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>RABOURDINJean</v>
+      </c>
+      <c r="D7" t="s">
+        <v>679</v>
+      </c>
+      <c r="E7" t="s">
+        <v>783</v>
+      </c>
+      <c r="F7" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>691</v>
+      </c>
+      <c r="H7" t="s">
+        <v>691</v>
+      </c>
+      <c r="I7" t="s">
+        <v>691</v>
+      </c>
+      <c r="J7" t="s">
+        <v>693</v>
+      </c>
+      <c r="K7" t="s">
+        <v>692</v>
+      </c>
+      <c r="L7" t="s">
+        <v>692</v>
+      </c>
+      <c r="M7" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>784</v>
+      </c>
+      <c r="B8" t="s">
+        <v>785</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>BOURDON-MERLINEmmie</v>
+      </c>
+      <c r="D8" t="s">
+        <v>786</v>
+      </c>
+      <c r="E8" t="s">
+        <v>787</v>
+      </c>
+      <c r="F8" s="4">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>692</v>
+      </c>
+      <c r="H8" t="s">
+        <v>691</v>
+      </c>
+      <c r="I8" t="s">
+        <v>692</v>
+      </c>
+      <c r="J8" t="s">
+        <v>693</v>
+      </c>
+      <c r="K8" t="s">
+        <v>693</v>
+      </c>
+      <c r="L8" t="s">
+        <v>694</v>
+      </c>
+      <c r="M8" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>723</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>CHIEN-CHOW-CHINEJules</v>
+      </c>
+      <c r="D9" t="s">
+        <v>724</v>
+      </c>
+      <c r="E9" t="s">
+        <v>788</v>
+      </c>
+      <c r="F9" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>692</v>
+      </c>
+      <c r="H9" t="s">
+        <v>691</v>
+      </c>
+      <c r="I9" t="s">
+        <v>692</v>
+      </c>
+      <c r="J9" t="s">
+        <v>693</v>
+      </c>
+      <c r="K9" t="s">
+        <v>693</v>
+      </c>
+      <c r="L9" t="s">
+        <v>692</v>
+      </c>
+      <c r="M9" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>766</v>
+      </c>
+      <c r="B10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>BOUTILLIERHugo</v>
+      </c>
+      <c r="D10" t="s">
+        <v>767</v>
+      </c>
+      <c r="E10" t="s">
+        <v>789</v>
+      </c>
+      <c r="F10" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>691</v>
+      </c>
+      <c r="H10" t="s">
+        <v>691</v>
+      </c>
+      <c r="I10" t="s">
+        <v>692</v>
+      </c>
+      <c r="J10" t="s">
+        <v>692</v>
+      </c>
+      <c r="K10" t="s">
+        <v>692</v>
+      </c>
+      <c r="L10" t="s">
+        <v>694</v>
+      </c>
+      <c r="M10" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>741</v>
+      </c>
+      <c r="B11" t="s">
+        <v>742</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>VAN COPPENOLLELaura</v>
+      </c>
+      <c r="D11" t="s">
+        <v>743</v>
+      </c>
+      <c r="E11" t="s">
+        <v>790</v>
+      </c>
+      <c r="F11" s="4">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>691</v>
+      </c>
+      <c r="H11" t="s">
+        <v>691</v>
+      </c>
+      <c r="I11" t="s">
+        <v>692</v>
+      </c>
+      <c r="J11" t="s">
+        <v>692</v>
+      </c>
+      <c r="K11" t="s">
+        <v>693</v>
+      </c>
+      <c r="L11" t="s">
+        <v>692</v>
+      </c>
+      <c r="M11" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>791</v>
+      </c>
+      <c r="B12" t="s">
+        <v>489</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>GROBELNYPierre</v>
+      </c>
+      <c r="D12" t="s">
+        <v>792</v>
+      </c>
+      <c r="E12" t="s">
+        <v>716</v>
+      </c>
+      <c r="F12" s="4">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>691</v>
+      </c>
+      <c r="H12" t="s">
+        <v>692</v>
+      </c>
+      <c r="I12" t="s">
+        <v>691</v>
+      </c>
+      <c r="J12" t="s">
+        <v>693</v>
+      </c>
+      <c r="K12" t="s">
+        <v>693</v>
+      </c>
+      <c r="L12" t="s">
+        <v>692</v>
+      </c>
+      <c r="M12" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>372</v>
+      </c>
+      <c r="B13" t="s">
+        <v>373</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>MERCADEREmma</v>
+      </c>
+      <c r="D13" t="s">
+        <v>374</v>
+      </c>
+      <c r="E13" t="s">
+        <v>793</v>
+      </c>
+      <c r="F13" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>691</v>
+      </c>
+      <c r="H13" t="s">
+        <v>691</v>
+      </c>
+      <c r="I13" t="s">
+        <v>691</v>
+      </c>
+      <c r="J13" t="s">
+        <v>693</v>
+      </c>
+      <c r="K13" t="s">
+        <v>692</v>
+      </c>
+      <c r="L13" t="s">
+        <v>692</v>
+      </c>
+      <c r="M13" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>638</v>
+      </c>
+      <c r="B14" t="s">
+        <v>639</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>GANGNITOCassandre</v>
+      </c>
+      <c r="D14" t="s">
+        <v>640</v>
+      </c>
+      <c r="E14" t="s">
+        <v>794</v>
+      </c>
+      <c r="F14" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>691</v>
+      </c>
+      <c r="H14" t="s">
+        <v>692</v>
+      </c>
+      <c r="I14" t="s">
+        <v>691</v>
+      </c>
+      <c r="J14" t="s">
+        <v>692</v>
+      </c>
+      <c r="K14" t="s">
+        <v>692</v>
+      </c>
+      <c r="L14" t="s">
+        <v>694</v>
+      </c>
+      <c r="M14" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>734</v>
+      </c>
+      <c r="B15" t="s">
+        <v>735</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>SCHIEBERHortense</v>
+      </c>
+      <c r="D15" t="s">
+        <v>736</v>
+      </c>
+      <c r="E15" t="s">
+        <v>795</v>
+      </c>
+      <c r="F15" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>692</v>
+      </c>
+      <c r="H15" t="s">
+        <v>692</v>
+      </c>
+      <c r="I15" t="s">
+        <v>691</v>
+      </c>
+      <c r="J15" t="s">
+        <v>693</v>
+      </c>
+      <c r="K15" t="s">
+        <v>693</v>
+      </c>
+      <c r="L15" t="s">
+        <v>692</v>
+      </c>
+      <c r="M15" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>THIREEmeline</v>
+      </c>
+      <c r="D16" t="s">
+        <v>440</v>
+      </c>
+      <c r="E16" t="s">
+        <v>796</v>
+      </c>
+      <c r="F16" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>692</v>
+      </c>
+      <c r="H16" t="s">
+        <v>691</v>
+      </c>
+      <c r="I16" t="s">
+        <v>692</v>
+      </c>
+      <c r="J16" t="s">
+        <v>693</v>
+      </c>
+      <c r="K16" t="s">
+        <v>693</v>
+      </c>
+      <c r="L16" t="s">
+        <v>692</v>
+      </c>
+      <c r="M16" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>731</v>
+      </c>
+      <c r="B17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>RAVELOJAONAArthur</v>
+      </c>
+      <c r="D17" t="s">
+        <v>732</v>
+      </c>
+      <c r="E17" t="s">
+        <v>797</v>
+      </c>
+      <c r="F17" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>691</v>
+      </c>
+      <c r="H17" t="s">
+        <v>691</v>
+      </c>
+      <c r="I17" t="s">
+        <v>692</v>
+      </c>
+      <c r="J17" t="s">
+        <v>692</v>
+      </c>
+      <c r="K17" t="s">
+        <v>692</v>
+      </c>
+      <c r="L17" t="s">
+        <v>694</v>
+      </c>
+      <c r="M17" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>798</v>
+      </c>
+      <c r="B18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>ALLIZARTLucie</v>
+      </c>
+      <c r="D18" t="s">
+        <v>799</v>
+      </c>
+      <c r="E18" t="s">
+        <v>800</v>
+      </c>
+      <c r="F18" s="4">
+        <v>6</v>
+      </c>
+      <c r="G18" t="s">
+        <v>692</v>
+      </c>
+      <c r="H18" t="s">
+        <v>692</v>
+      </c>
+      <c r="I18" t="s">
+        <v>692</v>
+      </c>
+      <c r="J18" t="s">
+        <v>693</v>
+      </c>
+      <c r="K18" t="s">
+        <v>693</v>
+      </c>
+      <c r="L18" t="s">
+        <v>692</v>
+      </c>
+      <c r="M18" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>406</v>
+      </c>
+      <c r="B19" t="s">
+        <v>407</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>ROUGEGREZTom</v>
+      </c>
+      <c r="D19" t="s">
+        <v>408</v>
+      </c>
+      <c r="E19" t="s">
+        <v>801</v>
+      </c>
+      <c r="F19" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>692</v>
+      </c>
+      <c r="H19" t="s">
+        <v>692</v>
+      </c>
+      <c r="I19" t="s">
+        <v>692</v>
+      </c>
+      <c r="J19" t="s">
+        <v>692</v>
+      </c>
+      <c r="K19" t="s">
+        <v>692</v>
+      </c>
+      <c r="L19" t="s">
+        <v>694</v>
+      </c>
+      <c r="M19" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>696</v>
+      </c>
+      <c r="B20" t="s">
+        <v>697</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>DUPRELilou</v>
+      </c>
+      <c r="D20" t="s">
+        <v>698</v>
+      </c>
+      <c r="E20" t="s">
+        <v>802</v>
+      </c>
+      <c r="F20" s="4">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>692</v>
+      </c>
+      <c r="H20" t="s">
+        <v>692</v>
+      </c>
+      <c r="I20" t="s">
+        <v>692</v>
+      </c>
+      <c r="J20" t="s">
+        <v>692</v>
+      </c>
+      <c r="K20" t="s">
+        <v>693</v>
+      </c>
+      <c r="L20" t="s">
+        <v>692</v>
+      </c>
+      <c r="M20" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>754</v>
+      </c>
+      <c r="B21" t="s">
+        <v>755</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>VINCENTWandrille</v>
+      </c>
+      <c r="D21" t="s">
+        <v>756</v>
+      </c>
+      <c r="E21" t="s">
+        <v>803</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>354</v>
+      </c>
+      <c r="H21" t="s">
+        <v>354</v>
+      </c>
+      <c r="I21" t="s">
+        <v>354</v>
+      </c>
+      <c r="J21" t="s">
+        <v>354</v>
+      </c>
+      <c r="K21" t="s">
+        <v>354</v>
+      </c>
+      <c r="L21" t="s">
+        <v>354</v>
+      </c>
+      <c r="M21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>804</v>
+      </c>
+      <c r="B22" t="s">
+        <v>805</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>MENASSACybele</v>
+      </c>
+      <c r="D22" t="s">
+        <v>806</v>
+      </c>
+      <c r="E22" t="s">
+        <v>807</v>
+      </c>
+      <c r="F22" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="G22" t="s">
+        <v>691</v>
+      </c>
+      <c r="H22" t="s">
+        <v>692</v>
+      </c>
+      <c r="I22" t="s">
+        <v>691</v>
+      </c>
+      <c r="J22" t="s">
+        <v>693</v>
+      </c>
+      <c r="K22" t="s">
+        <v>692</v>
+      </c>
+      <c r="L22" t="s">
+        <v>694</v>
+      </c>
+      <c r="M22" t="s">
+        <v>693</v>
       </c>
     </row>
   </sheetData>

--- a/resultats_fr.xlsx
+++ b/resultats_fr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cloudlasalle-my.sharepoint.com/personal/hamilton_araujo_unilasalle_fr/Documents/Bureau/maths_partage/app_maths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{8649811A-4967-4EC3-A7B0-C0480B9C06C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55B6DB42-DA64-AA4B-BF7F-708E3306FFFF}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{8649811A-4967-4EC3-A7B0-C0480B9C06C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9062680-1874-CC4D-B2BE-E22B760AC165}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="500" windowWidth="27560" windowHeight="17500" activeTab="5" xr2:uid="{324012A4-C409-47AB-B890-3A2793F8F5C9}"/>
+    <workbookView xWindow="1240" yWindow="500" windowWidth="27560" windowHeight="17500" activeTab="6" xr2:uid="{324012A4-C409-47AB-B890-3A2793F8F5C9}"/>
   </bookViews>
   <sheets>
     <sheet name="t1_FR_0411" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="t4_FR_0212" sheetId="5" r:id="rId4"/>
     <sheet name="t5_FR_0912" sheetId="7" r:id="rId5"/>
     <sheet name="t6_FR_1612" sheetId="8" r:id="rId6"/>
+    <sheet name="t7_FR_2012" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">t1_FR_0411!$A$1:$L$1</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="817">
   <si>
     <t>Nom de famille</t>
   </si>
@@ -2469,6 +2470,33 @@
   </si>
   <si>
     <t>4 min 30 s</t>
+  </si>
+  <si>
+    <t>9 min 51 s</t>
+  </si>
+  <si>
+    <t>12 min 53 s</t>
+  </si>
+  <si>
+    <t>13 min 55 s</t>
+  </si>
+  <si>
+    <t>3 min 18 s</t>
+  </si>
+  <si>
+    <t>6 min 38 s</t>
+  </si>
+  <si>
+    <t>10 min 32 s</t>
+  </si>
+  <si>
+    <t>2 min 26 s</t>
+  </si>
+  <si>
+    <t>11 min 14 s</t>
+  </si>
+  <si>
+    <t>27 min 56 s</t>
   </si>
 </sst>
 </file>
@@ -2511,12 +2539,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17837,7 +17864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84F63DD-2D1F-FF43-8549-C2AABC95FA05}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -17901,7 +17928,7 @@
       <c r="E2" t="s">
         <v>776</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2">
         <v>17</v>
       </c>
       <c r="G2" t="s">
@@ -17943,7 +17970,7 @@
       <c r="E3" t="s">
         <v>777</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3">
         <v>17</v>
       </c>
       <c r="G3" t="s">
@@ -17985,7 +18012,7 @@
       <c r="E4" t="s">
         <v>776</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4">
         <v>14.5</v>
       </c>
       <c r="G4" t="s">
@@ -18027,7 +18054,7 @@
       <c r="E5" t="s">
         <v>781</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5">
         <v>14.5</v>
       </c>
       <c r="G5" t="s">
@@ -18069,7 +18096,7 @@
       <c r="E6" t="s">
         <v>782</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6">
         <v>14.5</v>
       </c>
       <c r="G6" t="s">
@@ -18111,7 +18138,7 @@
       <c r="E7" t="s">
         <v>783</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7">
         <v>13.5</v>
       </c>
       <c r="G7" t="s">
@@ -18153,7 +18180,7 @@
       <c r="E8" t="s">
         <v>787</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8">
         <v>12</v>
       </c>
       <c r="G8" t="s">
@@ -18195,7 +18222,7 @@
       <c r="E9" t="s">
         <v>788</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9">
         <v>11.5</v>
       </c>
       <c r="G9" t="s">
@@ -18237,7 +18264,7 @@
       <c r="E10" t="s">
         <v>789</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10">
         <v>11.5</v>
       </c>
       <c r="G10" t="s">
@@ -18279,7 +18306,7 @@
       <c r="E11" t="s">
         <v>790</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11">
         <v>11</v>
       </c>
       <c r="G11" t="s">
@@ -18321,7 +18348,7 @@
       <c r="E12" t="s">
         <v>716</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12">
         <v>11</v>
       </c>
       <c r="G12" t="s">
@@ -18363,7 +18390,7 @@
       <c r="E13" t="s">
         <v>793</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13">
         <v>10.5</v>
       </c>
       <c r="G13" t="s">
@@ -18405,7 +18432,7 @@
       <c r="E14" t="s">
         <v>794</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14">
         <v>8.5</v>
       </c>
       <c r="G14" t="s">
@@ -18447,7 +18474,7 @@
       <c r="E15" t="s">
         <v>795</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15">
         <v>8.5</v>
       </c>
       <c r="G15" t="s">
@@ -18489,7 +18516,7 @@
       <c r="E16" t="s">
         <v>796</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16">
         <v>8.5</v>
       </c>
       <c r="G16" t="s">
@@ -18531,7 +18558,7 @@
       <c r="E17" t="s">
         <v>797</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17">
         <v>8.5</v>
       </c>
       <c r="G17" t="s">
@@ -18573,7 +18600,7 @@
       <c r="E18" t="s">
         <v>800</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18">
         <v>6</v>
       </c>
       <c r="G18" t="s">
@@ -18615,7 +18642,7 @@
       <c r="E19" t="s">
         <v>801</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19">
         <v>3.5</v>
       </c>
       <c r="G19" t="s">
@@ -18657,7 +18684,7 @@
       <c r="E20" t="s">
         <v>802</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20">
         <v>3</v>
       </c>
       <c r="G20" t="s">
@@ -18699,7 +18726,7 @@
       <c r="E21" t="s">
         <v>803</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21">
         <v>0</v>
       </c>
       <c r="G21" t="s">
@@ -18741,7 +18768,7 @@
       <c r="E22" t="s">
         <v>807</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22">
         <v>14.5</v>
       </c>
       <c r="G22" t="s">
@@ -18764,6 +18791,440 @@
       </c>
       <c r="M22" t="s">
         <v>693</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB7F7F6-0519-E142-85C9-68778314EC76}">
+  <dimension ref="A1:M10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B2" t="s">
+        <v>697</v>
+      </c>
+      <c r="C2" t="str">
+        <f>A2&amp;B2</f>
+        <v>DUPRELilou</v>
+      </c>
+      <c r="D2" t="s">
+        <v>698</v>
+      </c>
+      <c r="E2" t="s">
+        <v>808</v>
+      </c>
+      <c r="F2">
+        <v>14.5</v>
+      </c>
+      <c r="G2">
+        <v>2.5</v>
+      </c>
+      <c r="H2">
+        <v>2.5</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>3.5</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C10" si="0">A3&amp;B3</f>
+        <v>MERCADEREmma</v>
+      </c>
+      <c r="D3" t="s">
+        <v>374</v>
+      </c>
+      <c r="E3" t="s">
+        <v>809</v>
+      </c>
+      <c r="F3">
+        <v>2.5</v>
+      </c>
+      <c r="G3">
+        <v>2.5</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>ROUGEGREZTom</v>
+      </c>
+      <c r="D4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E4" t="s">
+        <v>810</v>
+      </c>
+      <c r="F4">
+        <v>14</v>
+      </c>
+      <c r="G4">
+        <v>2.5</v>
+      </c>
+      <c r="H4">
+        <v>2.5</v>
+      </c>
+      <c r="I4">
+        <v>2.5</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>3.5</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>734</v>
+      </c>
+      <c r="B5" t="s">
+        <v>735</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>SCHIEBERHortense</v>
+      </c>
+      <c r="D5" t="s">
+        <v>736</v>
+      </c>
+      <c r="E5" t="s">
+        <v>811</v>
+      </c>
+      <c r="F5">
+        <v>17</v>
+      </c>
+      <c r="G5">
+        <v>2.5</v>
+      </c>
+      <c r="H5">
+        <v>2.5</v>
+      </c>
+      <c r="I5">
+        <v>2.5</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>3.5</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>497</v>
+      </c>
+      <c r="B6" t="s">
+        <v>498</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>GAY-BOISSIER-DESCOMBESAnoa</v>
+      </c>
+      <c r="D6" t="s">
+        <v>499</v>
+      </c>
+      <c r="E6" t="s">
+        <v>812</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>2.5</v>
+      </c>
+      <c r="H6">
+        <v>2.5</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>638</v>
+      </c>
+      <c r="B7" t="s">
+        <v>639</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>GANGNITOCassandre</v>
+      </c>
+      <c r="D7" t="s">
+        <v>640</v>
+      </c>
+      <c r="E7" t="s">
+        <v>813</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>2.5</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>3.5</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>THIREEmeline</v>
+      </c>
+      <c r="D8" t="s">
+        <v>440</v>
+      </c>
+      <c r="E8" t="s">
+        <v>814</v>
+      </c>
+      <c r="F8">
+        <v>13.5</v>
+      </c>
+      <c r="G8">
+        <v>2.5</v>
+      </c>
+      <c r="H8">
+        <v>2.5</v>
+      </c>
+      <c r="I8">
+        <v>2.5</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>702</v>
+      </c>
+      <c r="B9" t="s">
+        <v>703</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>TROLLERemi</v>
+      </c>
+      <c r="D9" t="s">
+        <v>704</v>
+      </c>
+      <c r="E9" t="s">
+        <v>815</v>
+      </c>
+      <c r="F9">
+        <v>11.5</v>
+      </c>
+      <c r="G9">
+        <v>2.5</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B10" t="s">
+        <v>746</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>DUBOISSebastien</v>
+      </c>
+      <c r="D10" t="s">
+        <v>747</v>
+      </c>
+      <c r="E10" t="s">
+        <v>816</v>
+      </c>
+      <c r="F10">
+        <v>8.5</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>2.5</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/resultats_fr.xlsx
+++ b/resultats_fr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cloudlasalle-my.sharepoint.com/personal/hamilton_araujo_unilasalle_fr/Documents/Bureau/maths_partage/app_maths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{8649811A-4967-4EC3-A7B0-C0480B9C06C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9062680-1874-CC4D-B2BE-E22B760AC165}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{8649811A-4967-4EC3-A7B0-C0480B9C06C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E194B9DE-5698-4F00-A775-A04682BAA8FD}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="500" windowWidth="27560" windowHeight="17500" activeTab="6" xr2:uid="{324012A4-C409-47AB-B890-3A2793F8F5C9}"/>
+    <workbookView xWindow="22932" yWindow="-1548" windowWidth="23256" windowHeight="13896" activeTab="7" xr2:uid="{324012A4-C409-47AB-B890-3A2793F8F5C9}"/>
   </bookViews>
   <sheets>
     <sheet name="t1_FR_0411" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="t5_FR_0912" sheetId="7" r:id="rId5"/>
     <sheet name="t6_FR_1612" sheetId="8" r:id="rId6"/>
     <sheet name="t7_FR_2012" sheetId="9" r:id="rId7"/>
+    <sheet name="t8_FR_0601" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">t1_FR_0411!$A$1:$L$1</definedName>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="841">
   <si>
     <t>Nom de famille</t>
   </si>
@@ -2497,13 +2498,85 @@
   </si>
   <si>
     <t>27 min 56 s</t>
+  </si>
+  <si>
+    <t>8 min 22 s</t>
+  </si>
+  <si>
+    <t>ERIPRET</t>
+  </si>
+  <si>
+    <t>paul.eripret@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>3 min 46 s</t>
+  </si>
+  <si>
+    <t>MENARD</t>
+  </si>
+  <si>
+    <t>maxime.menard@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>KIHL</t>
+  </si>
+  <si>
+    <t>jeanne.kihl@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>8 min 41 s</t>
+  </si>
+  <si>
+    <t>6 min 26 s</t>
+  </si>
+  <si>
+    <t>1 min 8 s</t>
+  </si>
+  <si>
+    <t>3 min 2 s</t>
+  </si>
+  <si>
+    <t>4 min 14 s</t>
+  </si>
+  <si>
+    <t>LECOINTE</t>
+  </si>
+  <si>
+    <t>enzo.lecointe@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>2 min 43 s</t>
+  </si>
+  <si>
+    <t>6 min 31 s</t>
+  </si>
+  <si>
+    <t>NOYERE</t>
+  </si>
+  <si>
+    <t>camille.noyere@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>15 min 33 s</t>
+  </si>
+  <si>
+    <t>11 min 6 s</t>
+  </si>
+  <si>
+    <t>1 min 11 s</t>
+  </si>
+  <si>
+    <t>21 s</t>
+  </si>
+  <si>
+    <t>6 min 56 s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2516,6 +2589,11 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2535,19 +2613,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{079DD657-3CCF-4272-B0D5-CAF35BC33718}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{531936A3-F6C8-40C6-9616-0BF5EDB712D5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2888,14 +2969,14 @@
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2933,7 +3014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2972,7 +3053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -3011,7 +3092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -3050,7 +3131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -3089,7 +3170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -3128,7 +3209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -3167,7 +3248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -3206,7 +3287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -3245,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -3284,7 +3365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -3323,7 +3404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -3362,7 +3443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -3401,7 +3482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -3440,7 +3521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -3479,7 +3560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -3518,7 +3599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -3557,7 +3638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -3596,7 +3677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>63</v>
       </c>
@@ -3635,7 +3716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -3674,7 +3755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>68</v>
       </c>
@@ -3713,7 +3794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>71</v>
       </c>
@@ -3752,7 +3833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>74</v>
       </c>
@@ -3791,7 +3872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -3830,7 +3911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>80</v>
       </c>
@@ -3869,7 +3950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>83</v>
       </c>
@@ -3908,7 +3989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -3947,7 +4028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>89</v>
       </c>
@@ -3986,7 +4067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>92</v>
       </c>
@@ -4025,7 +4106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>93</v>
       </c>
@@ -4064,7 +4145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>96</v>
       </c>
@@ -4103,7 +4184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>99</v>
       </c>
@@ -4142,7 +4223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>101</v>
       </c>
@@ -4181,7 +4262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>104</v>
       </c>
@@ -4220,7 +4301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>107</v>
       </c>
@@ -4259,7 +4340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>110</v>
       </c>
@@ -4298,7 +4379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>113</v>
       </c>
@@ -4337,7 +4418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>116</v>
       </c>
@@ -4376,7 +4457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>119</v>
       </c>
@@ -4415,7 +4496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>122</v>
       </c>
@@ -4454,7 +4535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>125</v>
       </c>
@@ -4493,7 +4574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>128</v>
       </c>
@@ -4532,7 +4613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>131</v>
       </c>
@@ -4571,7 +4652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>134</v>
       </c>
@@ -4610,7 +4691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>137</v>
       </c>
@@ -4649,7 +4730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>140</v>
       </c>
@@ -4688,7 +4769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>143</v>
       </c>
@@ -4727,7 +4808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>146</v>
       </c>
@@ -4788,13 +4869,13 @@
       <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="55" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4832,7 +4913,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>150</v>
       </c>
@@ -4871,7 +4952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>153</v>
       </c>
@@ -4910,7 +4991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>155</v>
       </c>
@@ -4949,7 +5030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>158</v>
       </c>
@@ -4988,7 +5069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>160</v>
       </c>
@@ -5027,7 +5108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>163</v>
       </c>
@@ -5066,7 +5147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>166</v>
       </c>
@@ -5105,7 +5186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>169</v>
       </c>
@@ -5144,7 +5225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>172</v>
       </c>
@@ -5183,7 +5264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>174</v>
       </c>
@@ -5222,7 +5303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>177</v>
       </c>
@@ -5261,7 +5342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>180</v>
       </c>
@@ -5300,7 +5381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>183</v>
       </c>
@@ -5339,7 +5420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -5378,7 +5459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>187</v>
       </c>
@@ -5417,7 +5498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>190</v>
       </c>
@@ -5456,7 +5537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>192</v>
       </c>
@@ -5495,7 +5576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>195</v>
       </c>
@@ -5534,7 +5615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>198</v>
       </c>
@@ -5573,7 +5654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>200</v>
       </c>
@@ -5612,7 +5693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>203</v>
       </c>
@@ -5651,7 +5732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>205</v>
       </c>
@@ -5690,7 +5771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>208</v>
       </c>
@@ -5729,7 +5810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>211</v>
       </c>
@@ -5768,7 +5849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>214</v>
       </c>
@@ -5807,7 +5888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>217</v>
       </c>
@@ -5846,7 +5927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
@@ -5885,7 +5966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>221</v>
       </c>
@@ -5924,7 +6005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>45</v>
       </c>
@@ -5963,7 +6044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>226</v>
       </c>
@@ -6002,7 +6083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>228</v>
       </c>
@@ -6041,7 +6122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>230</v>
       </c>
@@ -6080,7 +6161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>233</v>
       </c>
@@ -6119,7 +6200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>236</v>
       </c>
@@ -6158,7 +6239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>238</v>
       </c>
@@ -6197,7 +6278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>241</v>
       </c>
@@ -6236,7 +6317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>244</v>
       </c>
@@ -6275,7 +6356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>63</v>
       </c>
@@ -6314,7 +6395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>247</v>
       </c>
@@ -6353,7 +6434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>249</v>
       </c>
@@ -6392,7 +6473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>252</v>
       </c>
@@ -6431,7 +6512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>255</v>
       </c>
@@ -6470,7 +6551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>258</v>
       </c>
@@ -6509,7 +6590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>260</v>
       </c>
@@ -6548,7 +6629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>262</v>
       </c>
@@ -6587,7 +6668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>265</v>
       </c>
@@ -6626,7 +6707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>268</v>
       </c>
@@ -6665,7 +6746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>271</v>
       </c>
@@ -6704,7 +6785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>273</v>
       </c>
@@ -6743,7 +6824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>275</v>
       </c>
@@ -6782,7 +6863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>278</v>
       </c>
@@ -6821,7 +6902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>280</v>
       </c>
@@ -6860,7 +6941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>80</v>
       </c>
@@ -6899,7 +6980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>283</v>
       </c>
@@ -6938,7 +7019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>285</v>
       </c>
@@ -6977,7 +7058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>288</v>
       </c>
@@ -7016,7 +7097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>83</v>
       </c>
@@ -7055,7 +7136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>291</v>
       </c>
@@ -7094,7 +7175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>294</v>
       </c>
@@ -7133,7 +7214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>297</v>
       </c>
@@ -7172,7 +7253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>299</v>
       </c>
@@ -7211,7 +7292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>302</v>
       </c>
@@ -7250,7 +7331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>92</v>
       </c>
@@ -7289,7 +7370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>306</v>
       </c>
@@ -7328,7 +7409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>308</v>
       </c>
@@ -7367,7 +7448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>310</v>
       </c>
@@ -7406,7 +7487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>313</v>
       </c>
@@ -7445,7 +7526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>315</v>
       </c>
@@ -7484,7 +7565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>318</v>
       </c>
@@ -7523,7 +7604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>321</v>
       </c>
@@ -7562,7 +7643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>324</v>
       </c>
@@ -7601,7 +7682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>327</v>
       </c>
@@ -7640,7 +7721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>330</v>
       </c>
@@ -7679,7 +7760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>333</v>
       </c>
@@ -7718,7 +7799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>333</v>
       </c>
@@ -7757,7 +7838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>338</v>
       </c>
@@ -7796,7 +7877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>341</v>
       </c>
@@ -7835,7 +7916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>344</v>
       </c>
@@ -7874,7 +7955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>344</v>
       </c>
@@ -7913,7 +7994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>348</v>
       </c>
@@ -7952,7 +8033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>350</v>
       </c>
@@ -7991,7 +8072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>352</v>
       </c>
@@ -8030,7 +8111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>355</v>
       </c>
@@ -8069,7 +8150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>358</v>
       </c>
@@ -8108,7 +8189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>361</v>
       </c>
@@ -8147,7 +8228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>364</v>
       </c>
@@ -8186,7 +8267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>367</v>
       </c>
@@ -8225,7 +8306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>369</v>
       </c>
@@ -8264,7 +8345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>372</v>
       </c>
@@ -8303,7 +8384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>375</v>
       </c>
@@ -8342,7 +8423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>378</v>
       </c>
@@ -8381,7 +8462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>380</v>
       </c>
@@ -8420,7 +8501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>383</v>
       </c>
@@ -8459,7 +8540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>386</v>
       </c>
@@ -8498,7 +8579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>388</v>
       </c>
@@ -8537,7 +8618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>391</v>
       </c>
@@ -8576,7 +8657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>393</v>
       </c>
@@ -8615,7 +8696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>125</v>
       </c>
@@ -8654,7 +8735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>397</v>
       </c>
@@ -8693,7 +8774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>400</v>
       </c>
@@ -8732,7 +8813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>403</v>
       </c>
@@ -8771,7 +8852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>406</v>
       </c>
@@ -8810,7 +8891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>409</v>
       </c>
@@ -8849,7 +8930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>412</v>
       </c>
@@ -8888,7 +8969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>414</v>
       </c>
@@ -8927,7 +9008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>417</v>
       </c>
@@ -8966,7 +9047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>420</v>
       </c>
@@ -9005,7 +9086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>423</v>
       </c>
@@ -9044,7 +9125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>425</v>
       </c>
@@ -9083,7 +9164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>428</v>
       </c>
@@ -9122,7 +9203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>430</v>
       </c>
@@ -9161,7 +9242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>433</v>
       </c>
@@ -9200,7 +9281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>436</v>
       </c>
@@ -9239,7 +9320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>438</v>
       </c>
@@ -9278,7 +9359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>131</v>
       </c>
@@ -9317,7 +9398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>441</v>
       </c>
@@ -9356,7 +9437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>444</v>
       </c>
@@ -9395,7 +9476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>447</v>
       </c>
@@ -9434,7 +9515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>449</v>
       </c>
@@ -9473,7 +9554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>452</v>
       </c>
@@ -9512,7 +9593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>454</v>
       </c>
@@ -9551,7 +9632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>143</v>
       </c>
@@ -9590,7 +9671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>146</v>
       </c>
@@ -9629,7 +9710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>458</v>
       </c>
@@ -9668,7 +9749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>460</v>
       </c>
@@ -9728,15 +9809,15 @@
       <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9774,7 +9855,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>436</v>
       </c>
@@ -9813,7 +9894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>341</v>
       </c>
@@ -9852,7 +9933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>463</v>
       </c>
@@ -9891,7 +9972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>466</v>
       </c>
@@ -9930,7 +10011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>333</v>
       </c>
@@ -9969,7 +10050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>383</v>
       </c>
@@ -10008,7 +10089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>468</v>
       </c>
@@ -10047,7 +10128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>321</v>
       </c>
@@ -10086,7 +10167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>471</v>
       </c>
@@ -10125,7 +10206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>473</v>
       </c>
@@ -10164,7 +10245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>414</v>
       </c>
@@ -10203,7 +10284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>475</v>
       </c>
@@ -10242,7 +10323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>131</v>
       </c>
@@ -10281,7 +10362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>318</v>
       </c>
@@ -10320,7 +10401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>478</v>
       </c>
@@ -10359,7 +10440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>481</v>
       </c>
@@ -10398,7 +10479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>361</v>
       </c>
@@ -10437,7 +10518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>484</v>
       </c>
@@ -10476,7 +10557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>486</v>
       </c>
@@ -10515,7 +10596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>488</v>
       </c>
@@ -10554,7 +10635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>491</v>
       </c>
@@ -10593,7 +10674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>494</v>
       </c>
@@ -10632,7 +10713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>497</v>
       </c>
@@ -10671,7 +10752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>500</v>
       </c>
@@ -10710,7 +10791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>275</v>
       </c>
@@ -10749,7 +10830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>291</v>
       </c>
@@ -10788,7 +10869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>503</v>
       </c>
@@ -10827,7 +10908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>506</v>
       </c>
@@ -10866,7 +10947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>509</v>
       </c>
@@ -10905,7 +10986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>511</v>
       </c>
@@ -10944,7 +11025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>441</v>
       </c>
@@ -10983,7 +11064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>244</v>
       </c>
@@ -11022,7 +11103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>280</v>
       </c>
@@ -11061,7 +11142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>514</v>
       </c>
@@ -11100,7 +11181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>517</v>
       </c>
@@ -11139,7 +11220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>519</v>
       </c>
@@ -11178,7 +11259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>160</v>
       </c>
@@ -11217,7 +11298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>388</v>
       </c>
@@ -11256,7 +11337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>522</v>
       </c>
@@ -11295,7 +11376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>525</v>
       </c>
@@ -11334,7 +11415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>527</v>
       </c>
@@ -11373,7 +11454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>530</v>
       </c>
@@ -11412,7 +11493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>532</v>
       </c>
@@ -11451,7 +11532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>535</v>
       </c>
@@ -11490,7 +11571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>538</v>
       </c>
@@ -11529,7 +11610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>541</v>
       </c>
@@ -11568,7 +11649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>544</v>
       </c>
@@ -11607,7 +11688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>546</v>
       </c>
@@ -11646,7 +11727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>549</v>
       </c>
@@ -11685,7 +11766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>278</v>
       </c>
@@ -11724,7 +11805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>297</v>
       </c>
@@ -11763,7 +11844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>552</v>
       </c>
@@ -11802,7 +11883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>344</v>
       </c>
@@ -11841,7 +11922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>555</v>
       </c>
@@ -11880,7 +11961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>558</v>
       </c>
@@ -11919,7 +12000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>560</v>
       </c>
@@ -11958,7 +12039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>449</v>
       </c>
@@ -11997,7 +12078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>563</v>
       </c>
@@ -12036,7 +12117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>283</v>
       </c>
@@ -12075,7 +12156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>565</v>
       </c>
@@ -12114,7 +12195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>568</v>
       </c>
@@ -12153,7 +12234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>570</v>
       </c>
@@ -12192,7 +12273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>573</v>
       </c>
@@ -12231,7 +12312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>576</v>
       </c>
@@ -12270,7 +12351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>578</v>
       </c>
@@ -12309,7 +12390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>581</v>
       </c>
@@ -12348,7 +12429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>330</v>
       </c>
@@ -12387,7 +12468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>458</v>
       </c>
@@ -12426,7 +12507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>378</v>
       </c>
@@ -12465,7 +12546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>584</v>
       </c>
@@ -12504,7 +12585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>586</v>
       </c>
@@ -12543,7 +12624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>589</v>
       </c>
@@ -12582,7 +12663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>146</v>
       </c>
@@ -12621,7 +12702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>364</v>
       </c>
@@ -12660,7 +12741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>591</v>
       </c>
@@ -12699,7 +12780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>593</v>
       </c>
@@ -12738,7 +12819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>595</v>
       </c>
@@ -12777,7 +12858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>107</v>
       </c>
@@ -12816,7 +12897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>260</v>
       </c>
@@ -12855,7 +12936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>217</v>
       </c>
@@ -12894,7 +12975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>192</v>
       </c>
@@ -12933,7 +13014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>599</v>
       </c>
@@ -12972,7 +13053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>602</v>
       </c>
@@ -13011,7 +13092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>605</v>
       </c>
@@ -13050,7 +13131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>608</v>
       </c>
@@ -13089,7 +13170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>299</v>
       </c>
@@ -13128,7 +13209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>33</v>
       </c>
@@ -13167,7 +13248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>150</v>
       </c>
@@ -13206,7 +13287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>612</v>
       </c>
@@ -13245,7 +13326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>198</v>
       </c>
@@ -13284,7 +13365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>163</v>
       </c>
@@ -13323,7 +13404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>615</v>
       </c>
@@ -13362,7 +13443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>273</v>
       </c>
@@ -13401,7 +13482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>617</v>
       </c>
@@ -13440,7 +13521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>619</v>
       </c>
@@ -13479,7 +13560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>403</v>
       </c>
@@ -13518,7 +13599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>180</v>
       </c>
@@ -13557,7 +13638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>372</v>
       </c>
@@ -13596,7 +13677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>622</v>
       </c>
@@ -13635,7 +13716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>625</v>
       </c>
@@ -13674,7 +13755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>306</v>
       </c>
@@ -13713,7 +13794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>627</v>
       </c>
@@ -13768,9 +13849,9 @@
       <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13808,7 +13889,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>198</v>
       </c>
@@ -13847,7 +13928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>146</v>
       </c>
@@ -13886,7 +13967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>629</v>
       </c>
@@ -13925,7 +14006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>180</v>
       </c>
@@ -13964,7 +14045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>221</v>
       </c>
@@ -14003,7 +14084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>617</v>
       </c>
@@ -14042,7 +14123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>634</v>
       </c>
@@ -14081,7 +14162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>302</v>
       </c>
@@ -14120,7 +14201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>636</v>
       </c>
@@ -14159,7 +14240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>192</v>
       </c>
@@ -14198,7 +14279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>638</v>
       </c>
@@ -14237,7 +14318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>532</v>
       </c>
@@ -14276,7 +14357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>576</v>
       </c>
@@ -14315,7 +14396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>299</v>
       </c>
@@ -14354,7 +14435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>641</v>
       </c>
@@ -14393,7 +14474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>643</v>
       </c>
@@ -14432,7 +14513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>645</v>
       </c>
@@ -14471,7 +14552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>447</v>
       </c>
@@ -14510,7 +14591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>541</v>
       </c>
@@ -14549,7 +14630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>573</v>
       </c>
@@ -14588,7 +14669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>650</v>
       </c>
@@ -14627,7 +14708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>599</v>
       </c>
@@ -14666,7 +14747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>530</v>
       </c>
@@ -14705,7 +14786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>378</v>
       </c>
@@ -14744,7 +14825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>522</v>
       </c>
@@ -14783,7 +14864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>653</v>
       </c>
@@ -14822,7 +14903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>602</v>
       </c>
@@ -14861,7 +14942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>656</v>
       </c>
@@ -14900,7 +14981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>211</v>
       </c>
@@ -14939,7 +15020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>244</v>
       </c>
@@ -14978,7 +15059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>278</v>
       </c>
@@ -15017,7 +15098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>570</v>
       </c>
@@ -15056,7 +15137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>658</v>
       </c>
@@ -15095,7 +15176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>107</v>
       </c>
@@ -15134,7 +15215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>99</v>
       </c>
@@ -15173,7 +15254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -15212,7 +15293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -15251,7 +15332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>497</v>
       </c>
@@ -15290,7 +15371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>662</v>
       </c>
@@ -15329,7 +15410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>665</v>
       </c>
@@ -15368,7 +15449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>667</v>
       </c>
@@ -15407,7 +15488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>669</v>
       </c>
@@ -15446,7 +15527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>672</v>
       </c>
@@ -15485,7 +15566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>280</v>
       </c>
@@ -15524,7 +15605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>675</v>
       </c>
@@ -15563,7 +15644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>414</v>
       </c>
@@ -15602,7 +15683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>333</v>
       </c>
@@ -15641,7 +15722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>406</v>
       </c>
@@ -15680,7 +15761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>678</v>
       </c>
@@ -15719,7 +15800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>341</v>
       </c>
@@ -15758,7 +15839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>169</v>
       </c>
@@ -15797,7 +15878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>682</v>
       </c>
@@ -15836,7 +15917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>685</v>
       </c>
@@ -15875,7 +15956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>687</v>
       </c>
@@ -15914,7 +15995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>372</v>
       </c>
@@ -15953,7 +16034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>306</v>
       </c>
@@ -15992,7 +16073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>627</v>
       </c>
@@ -16044,13 +16125,13 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16091,7 +16172,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>669</v>
       </c>
@@ -16133,7 +16214,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>221</v>
       </c>
@@ -16175,7 +16256,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>696</v>
       </c>
@@ -16217,7 +16298,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>406</v>
       </c>
@@ -16259,7 +16340,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>665</v>
       </c>
@@ -16301,7 +16382,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>702</v>
       </c>
@@ -16343,7 +16424,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>658</v>
       </c>
@@ -16385,7 +16466,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>707</v>
       </c>
@@ -16427,7 +16508,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>530</v>
       </c>
@@ -16469,7 +16550,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>638</v>
       </c>
@@ -16511,7 +16592,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>712</v>
       </c>
@@ -16553,7 +16634,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>99</v>
       </c>
@@ -16595,7 +16676,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>198</v>
       </c>
@@ -16637,7 +16718,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>634</v>
       </c>
@@ -16679,7 +16760,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>719</v>
       </c>
@@ -16721,7 +16802,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>687</v>
       </c>
@@ -16763,7 +16844,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>723</v>
       </c>
@@ -16805,7 +16886,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>570</v>
       </c>
@@ -16847,7 +16928,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>211</v>
       </c>
@@ -16889,7 +16970,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>497</v>
       </c>
@@ -16931,7 +17012,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>107</v>
       </c>
@@ -16973,7 +17054,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>584</v>
       </c>
@@ -17015,7 +17096,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>672</v>
       </c>
@@ -17057,7 +17138,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>731</v>
       </c>
@@ -17099,7 +17180,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>734</v>
       </c>
@@ -17141,7 +17222,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>738</v>
       </c>
@@ -17183,7 +17264,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>741</v>
       </c>
@@ -17225,7 +17306,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>527</v>
       </c>
@@ -17267,7 +17348,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>244</v>
       </c>
@@ -17309,7 +17390,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>650</v>
       </c>
@@ -17351,7 +17432,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>749</v>
       </c>
@@ -17393,7 +17474,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>678</v>
       </c>
@@ -17435,7 +17516,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>754</v>
       </c>
@@ -17477,7 +17558,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>372</v>
       </c>
@@ -17519,7 +17600,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>299</v>
       </c>
@@ -17561,7 +17642,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>131</v>
       </c>
@@ -17603,7 +17684,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>653</v>
       </c>
@@ -17645,7 +17726,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>762</v>
       </c>
@@ -17687,7 +17768,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>766</v>
       </c>
@@ -17729,7 +17810,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>532</v>
       </c>
@@ -17771,7 +17852,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>288</v>
       </c>
@@ -17813,7 +17894,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>770</v>
       </c>
@@ -17868,9 +17949,9 @@
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17911,7 +17992,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>774</v>
       </c>
@@ -17953,7 +18034,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>107</v>
       </c>
@@ -17995,7 +18076,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>198</v>
       </c>
@@ -18037,7 +18118,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>778</v>
       </c>
@@ -18079,7 +18160,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>658</v>
       </c>
@@ -18121,7 +18202,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>678</v>
       </c>
@@ -18163,7 +18244,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>784</v>
       </c>
@@ -18205,7 +18286,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>723</v>
       </c>
@@ -18247,7 +18328,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>766</v>
       </c>
@@ -18289,7 +18370,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>741</v>
       </c>
@@ -18331,7 +18412,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>791</v>
       </c>
@@ -18373,7 +18454,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>372</v>
       </c>
@@ -18415,7 +18496,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>638</v>
       </c>
@@ -18457,7 +18538,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>734</v>
       </c>
@@ -18499,7 +18580,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>131</v>
       </c>
@@ -18541,7 +18622,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>731</v>
       </c>
@@ -18583,7 +18664,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>798</v>
       </c>
@@ -18625,7 +18706,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>406</v>
       </c>
@@ -18667,7 +18748,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>696</v>
       </c>
@@ -18709,7 +18790,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>754</v>
       </c>
@@ -18751,7 +18832,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>804</v>
       </c>
@@ -18802,13 +18883,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB7F7F6-0519-E142-85C9-68778314EC76}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18849,7 +18930,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>696</v>
       </c>
@@ -18891,7 +18972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>372</v>
       </c>
@@ -18933,7 +19014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>406</v>
       </c>
@@ -18975,7 +19056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>734</v>
       </c>
@@ -19017,7 +19098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>497</v>
       </c>
@@ -19059,7 +19140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>638</v>
       </c>
@@ -19101,7 +19182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>131</v>
       </c>
@@ -19143,7 +19224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>702</v>
       </c>
@@ -19185,7 +19266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>244</v>
       </c>
@@ -19225,6 +19306,823 @@
       </c>
       <c r="M10">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C4F3323-906B-467C-8E75-C010FB76EB1B}">
+  <dimension ref="A1:M19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C2" t="str">
+        <f>A2&amp;B2</f>
+        <v>MERCIERMax</v>
+      </c>
+      <c r="D2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E2" t="s">
+        <v>813</v>
+      </c>
+      <c r="F2">
+        <v>17.5</v>
+      </c>
+      <c r="G2">
+        <v>2.5</v>
+      </c>
+      <c r="H2">
+        <v>2.5</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>3.5</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>784</v>
+      </c>
+      <c r="B3" t="s">
+        <v>785</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C19" si="0">A3&amp;B3</f>
+        <v>BOURDON-MERLINEmmie</v>
+      </c>
+      <c r="D3" t="s">
+        <v>786</v>
+      </c>
+      <c r="E3" t="s">
+        <v>817</v>
+      </c>
+      <c r="F3">
+        <v>17.5</v>
+      </c>
+      <c r="G3">
+        <v>2.5</v>
+      </c>
+      <c r="H3">
+        <v>2.5</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>3.5</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>818</v>
+      </c>
+      <c r="B4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>ERIPRETPaul</v>
+      </c>
+      <c r="D4" t="s">
+        <v>819</v>
+      </c>
+      <c r="E4" t="s">
+        <v>820</v>
+      </c>
+      <c r="F4">
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <v>2.5</v>
+      </c>
+      <c r="H4">
+        <v>2.5</v>
+      </c>
+      <c r="I4">
+        <v>2.5</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>3.5</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>821</v>
+      </c>
+      <c r="B5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>MENARDMaxime</v>
+      </c>
+      <c r="D5" t="s">
+        <v>822</v>
+      </c>
+      <c r="E5" t="s">
+        <v>737</v>
+      </c>
+      <c r="F5">
+        <v>17</v>
+      </c>
+      <c r="G5">
+        <v>2.5</v>
+      </c>
+      <c r="H5">
+        <v>2.5</v>
+      </c>
+      <c r="I5">
+        <v>2.5</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>354</v>
+      </c>
+      <c r="L5">
+        <v>3.5</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>823</v>
+      </c>
+      <c r="B6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>KIHLJeanne</v>
+      </c>
+      <c r="D6" t="s">
+        <v>824</v>
+      </c>
+      <c r="E6" t="s">
+        <v>825</v>
+      </c>
+      <c r="F6">
+        <v>14.5</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>2.5</v>
+      </c>
+      <c r="I6">
+        <v>2.5</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>3.5</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>798</v>
+      </c>
+      <c r="B7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>ALLIZARTLucie</v>
+      </c>
+      <c r="D7" t="s">
+        <v>799</v>
+      </c>
+      <c r="E7" t="s">
+        <v>826</v>
+      </c>
+      <c r="F7">
+        <v>14</v>
+      </c>
+      <c r="G7">
+        <v>2.5</v>
+      </c>
+      <c r="H7">
+        <v>2.5</v>
+      </c>
+      <c r="I7">
+        <v>2.5</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>3.5</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>656</v>
+      </c>
+      <c r="B8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>AUBERTLucie</v>
+      </c>
+      <c r="D8" t="s">
+        <v>657</v>
+      </c>
+      <c r="E8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>2.5</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>3.5</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>497</v>
+      </c>
+      <c r="B9" t="s">
+        <v>498</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>GAY-BOISSIER-DESCOMBESAnoa</v>
+      </c>
+      <c r="D9" t="s">
+        <v>499</v>
+      </c>
+      <c r="E9" t="s">
+        <v>827</v>
+      </c>
+      <c r="F9">
+        <v>11.5</v>
+      </c>
+      <c r="G9">
+        <v>2.5</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>2.5</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>3.5</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>302</v>
+      </c>
+      <c r="B10" t="s">
+        <v>303</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>HUBERTRonan</v>
+      </c>
+      <c r="D10" t="s">
+        <v>304</v>
+      </c>
+      <c r="E10" t="s">
+        <v>828</v>
+      </c>
+      <c r="F10">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>2.5</v>
+      </c>
+      <c r="H10">
+        <v>2.5</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>DE FAUTEREAU-VASSELLuc</v>
+      </c>
+      <c r="D11" t="s">
+        <v>213</v>
+      </c>
+      <c r="E11" t="s">
+        <v>829</v>
+      </c>
+      <c r="F11">
+        <v>10.5</v>
+      </c>
+      <c r="G11">
+        <v>2.5</v>
+      </c>
+      <c r="H11">
+        <v>2.5</v>
+      </c>
+      <c r="I11">
+        <v>2.5</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>830</v>
+      </c>
+      <c r="B12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>LECOINTEEnzo</v>
+      </c>
+      <c r="D12" t="s">
+        <v>831</v>
+      </c>
+      <c r="E12" t="s">
+        <v>832</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>2.5</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>3.5</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>244</v>
+      </c>
+      <c r="B13" t="s">
+        <v>746</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>DUBOISSebastien</v>
+      </c>
+      <c r="D13" t="s">
+        <v>747</v>
+      </c>
+      <c r="E13" t="s">
+        <v>701</v>
+      </c>
+      <c r="F13">
+        <v>8.5</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>2.5</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>762</v>
+      </c>
+      <c r="B14" t="s">
+        <v>763</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>ROGERTristan</v>
+      </c>
+      <c r="D14" t="s">
+        <v>764</v>
+      </c>
+      <c r="E14" t="s">
+        <v>833</v>
+      </c>
+      <c r="F14">
+        <v>6.5</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>3.5</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>834</v>
+      </c>
+      <c r="B15" t="s">
+        <v>582</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>NOYERECamille</v>
+      </c>
+      <c r="D15" t="s">
+        <v>835</v>
+      </c>
+      <c r="E15" t="s">
+        <v>836</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>372</v>
+      </c>
+      <c r="B16" t="s">
+        <v>373</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>MERCADEREmma</v>
+      </c>
+      <c r="D16" t="s">
+        <v>374</v>
+      </c>
+      <c r="E16" t="s">
+        <v>837</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>2.5</v>
+      </c>
+      <c r="H16">
+        <v>2.5</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>584</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>HEUSSEVictorien</v>
+      </c>
+      <c r="D17" t="s">
+        <v>585</v>
+      </c>
+      <c r="E17" t="s">
+        <v>838</v>
+      </c>
+      <c r="F17">
+        <v>3.5</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>3.5</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>731</v>
+      </c>
+      <c r="B18" t="s">
+        <v>206</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>RAVELOJAONAArthur</v>
+      </c>
+      <c r="D18" t="s">
+        <v>732</v>
+      </c>
+      <c r="E18" t="s">
+        <v>839</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>354</v>
+      </c>
+      <c r="H18" t="s">
+        <v>354</v>
+      </c>
+      <c r="I18" t="s">
+        <v>354</v>
+      </c>
+      <c r="J18" t="s">
+        <v>354</v>
+      </c>
+      <c r="K18" t="s">
+        <v>354</v>
+      </c>
+      <c r="L18" t="s">
+        <v>354</v>
+      </c>
+      <c r="M18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>MONCOURTOISRaphael</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="F19" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="G19" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="H19" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <v>3</v>
+      </c>
+      <c r="K19" s="4">
+        <v>3</v>
+      </c>
+      <c r="L19" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
